--- a/Semester 5/LFTC/lab/AtomToCode.xlsx
+++ b/Semester 5/LFTC/lab/AtomToCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Semester 5\LFTC\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E6060-0EE0-4D90-B8ED-881DD30AA7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84820E8-EE37-4E1C-9850-9FACA1BFD336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Atom</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +761,15 @@
         <v>29</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">INDIRECT(ADDRESS(ROW()-1,COLUMN()))  + 1</f>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
